--- a/data/api_test_data.xlsx
+++ b/data/api_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="20490" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -1016,7 +1016,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>

--- a/data/api_test_data.xlsx
+++ b/data/api_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7845"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
   <si>
     <t>Module</t>
   </si>
@@ -64,25 +64,46 @@
     <t>Create_user</t>
   </si>
   <si>
-    <t>1.1.1_create_an_admin_user</t>
+    <t>1.1.1_create_admin_user_admin</t>
+  </si>
+  <si>
+    <t>{'username':'autoadmin','password':'autoadminpassword','scope':'vnfm','grant_type':'password'}</t>
+  </si>
+  <si>
+    <t>/auth/users</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>User_login</t>
-  </si>
-  <si>
-    <t>1.2.1_admin_user_login</t>
-  </si>
-  <si>
-    <t>Get_user</t>
-  </si>
-  <si>
-    <t>1.3.1_get_all_users_by_admin</t>
-  </si>
-  <si>
-    <t>GET</t>
+    <t>1.1.2_create_admin_user_admin1</t>
+  </si>
+  <si>
+    <t>{'username':'autoadmin1','password':'autoadminpassword1','scope':'vnfm','grant_type':'password'}</t>
+  </si>
+  <si>
+    <t>1.1.3_create_admin_user_admin_%</t>
+  </si>
+  <si>
+    <t>{'username':'autoadmin_%','password':'autoadminpassword_%','scope':'vnfm','grant_type':'password'}</t>
+  </si>
+  <si>
+    <t>1.1.4_create_admin_user_password_null</t>
+  </si>
+  <si>
+    <t>{'username':'autoadmin','password':'','scope':'vnfm','grant_type':'password'}</t>
+  </si>
+  <si>
+    <t>1.1.5_create_admin_user_username_null</t>
+  </si>
+  <si>
+    <t>{'username':'','password':'autoadminpassword','scope':'vnfm','grant_type':'password'}</t>
+  </si>
+  <si>
+    <t>1.1.6_create_admin_user_all_null</t>
+  </si>
+  <si>
+    <t>{'username':'','password':'','scope':'vnfm','grant_type':'password'}</t>
   </si>
 </sst>
 </file>
@@ -1013,20 +1034,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="4" max="4" width="28.25" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
-    <col min="6" max="6" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="11.4666666666667" customWidth="1"/>
+    <col min="3" max="3" width="5.35" customWidth="1"/>
+    <col min="4" max="4" width="31.375" customWidth="1"/>
+    <col min="5" max="5" width="26.55" customWidth="1"/>
+    <col min="6" max="6" width="15.6" customWidth="1"/>
     <col min="7" max="7" width="7.375" customWidth="1"/>
     <col min="8" max="8" width="12.625" customWidth="1"/>
     <col min="9" max="9" width="14.875" customWidth="1"/>
@@ -1071,45 +1092,126 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" customFormat="1" spans="1:8">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
       </c>
       <c r="H3">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" customFormat="1" spans="1:8">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C4"/>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H4">
-        <v>200</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" spans="1:7">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="1:7">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/api_test_data.xlsx
+++ b/data/api_test_data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
   <si>
     <t>Module</t>
   </si>
@@ -49,7 +49,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Method</t>
+    <t>CaseMethod</t>
   </si>
   <si>
     <t>Expect_code</t>
@@ -58,6 +58,9 @@
     <t>Expect_result</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>Users</t>
   </si>
   <si>
@@ -67,7 +70,7 @@
     <t>1.1.1_create_admin_user_admin</t>
   </si>
   <si>
-    <t>{'username':'autoadmin','password':'autoadminpassword','scope':'vnfm','grant_type':'password'}</t>
+    <t>{"username":"auto_admin","name":"auto_admin","password":"casa1234","enabled":1,"email":"auto_admin@qq.com","group":"admin"}</t>
   </si>
   <si>
     <t>/auth/users</t>
@@ -79,31 +82,43 @@
     <t>1.1.2_create_admin_user_admin1</t>
   </si>
   <si>
-    <t>{'username':'autoadmin1','password':'autoadminpassword1','scope':'vnfm','grant_type':'password'}</t>
-  </si>
-  <si>
     <t>1.1.3_create_admin_user_admin_%</t>
   </si>
   <si>
-    <t>{'username':'autoadmin_%','password':'autoadminpassword_%','scope':'vnfm','grant_type':'password'}</t>
-  </si>
-  <si>
     <t>1.1.4_create_admin_user_password_null</t>
   </si>
   <si>
-    <t>{'username':'autoadmin','password':'','scope':'vnfm','grant_type':'password'}</t>
-  </si>
-  <si>
     <t>1.1.5_create_admin_user_username_null</t>
   </si>
   <si>
-    <t>{'username':'','password':'autoadminpassword','scope':'vnfm','grant_type':'password'}</t>
-  </si>
-  <si>
     <t>1.1.6_create_admin_user_all_null</t>
   </si>
   <si>
-    <t>{'username':'','password':'','scope':'vnfm','grant_type':'password'}</t>
+    <t>1.1.7_create_admin_user_password_less_than_4</t>
+  </si>
+  <si>
+    <t>1.1.8_create_admin_user_password_with_^&amp;</t>
+  </si>
+  <si>
+    <t>1.1.9_create_admin_user_password_only_string</t>
+  </si>
+  <si>
+    <t>1.1.10_create_admin_user_password_only_number</t>
+  </si>
+  <si>
+    <t>1.1.11_create_admin_user_admin_existed</t>
+  </si>
+  <si>
+    <t>{"status":null,"appCode":405,"message":"Username: auto_admin already exists"}</t>
+  </si>
+  <si>
+    <t>1.1.12_create_cd_user</t>
+  </si>
+  <si>
+    <t>1.1.13_create_edge_user</t>
+  </si>
+  <si>
+    <t>1.1.14_create_guest_user</t>
   </si>
 </sst>
 </file>
@@ -1034,26 +1049,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="11.4666666666667" customWidth="1"/>
-    <col min="3" max="3" width="5.35" customWidth="1"/>
-    <col min="4" max="4" width="31.375" customWidth="1"/>
-    <col min="5" max="5" width="26.55" customWidth="1"/>
-    <col min="6" max="6" width="15.6" customWidth="1"/>
-    <col min="7" max="7" width="7.375" customWidth="1"/>
-    <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="14.875" customWidth="1"/>
+    <col min="1" max="1" width="9.75" customWidth="1"/>
+    <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="7.375" customWidth="1"/>
+    <col min="4" max="4" width="44.2166666666667" customWidth="1"/>
+    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="6" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1080,26 +1092,30 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C2"/>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2">
         <v>200</v>
@@ -1107,23 +1123,21 @@
     </row>
     <row r="3" customFormat="1" spans="1:8">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3"/>
       <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3"/>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
       </c>
       <c r="H3">
         <v>200</v>
@@ -1131,23 +1145,21 @@
     </row>
     <row r="4" customFormat="1" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
+      <c r="E4"/>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>500</v>
@@ -1155,63 +1167,211 @@
     </row>
     <row r="5" customFormat="1" spans="1:7">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="E5"/>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" customFormat="1" spans="1:7">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C6"/>
       <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="E6"/>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="1" spans="1:7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:7">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:7">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:7">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:7">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F11" t="s">
         <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:9">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>400</v>
+      </c>
+      <c r="I12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" spans="1:7">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" spans="1:7">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" spans="1:7">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/api_test_data.xlsx
+++ b/data/api_test_data.xlsx
@@ -1052,7 +1052,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1061,7 +1061,7 @@
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="7.375" customWidth="1"/>
     <col min="4" max="4" width="44.2166666666667" customWidth="1"/>
-    <col min="5" max="5" width="18.75" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
     <col min="6" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>

--- a/data/api_test_data.xlsx
+++ b/data/api_test_data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="44">
   <si>
     <t>Module</t>
   </si>
@@ -82,30 +82,63 @@
     <t>1.1.2_create_admin_user_admin1</t>
   </si>
   <si>
+    <t>{"username":"auto_admin1","name":"auto_admin1","password":"casa1234","enabled":1,"email":"auto_admin@qq.com","group":"admin"}</t>
+  </si>
+  <si>
     <t>1.1.3_create_admin_user_admin_%</t>
   </si>
   <si>
+    <t>{"username":"auto_admin_%","name":"auto_admin_%","password":"casa1234","enabled":1,"email":"auto_admin@qq.com","group":"admin"}</t>
+  </si>
+  <si>
     <t>1.1.4_create_admin_user_password_null</t>
   </si>
   <si>
+    <t>{"username":"auto_admin_password_null","name":"auto_admin","password":"","enabled":1,"email":"auto_admin@qq.com","group":"admin"}</t>
+  </si>
+  <si>
+    <t>{"status":null,"appCode":200,"message":"Password must not be spaces"}</t>
+  </si>
+  <si>
     <t>1.1.5_create_admin_user_username_null</t>
   </si>
   <si>
+    <t>{"username":"","name":"auto_admin","password":"casa1234","enabled":1,"email":"auto_admin@qq.com","group":"admin"}</t>
+  </si>
+  <si>
     <t>1.1.6_create_admin_user_all_null</t>
   </si>
   <si>
+    <t>{"username":"","name":"auto_admin","password":"","enabled":1,"email":"auto_admin@qq.com","group":"admin"}</t>
+  </si>
+  <si>
     <t>1.1.7_create_admin_user_password_less_than_4</t>
   </si>
   <si>
+    <t>{"username":"auto_admin_password_less","name":"auto_admin","password":"cas","enabled":1,"email":"auto_admin@qq.com","group":"admin"}</t>
+  </si>
+  <si>
+    <t>{"status":null,"appCode":200,"message":"Password must be at least 4 characters."}</t>
+  </si>
+  <si>
     <t>1.1.8_create_admin_user_password_with_^&amp;</t>
   </si>
   <si>
+    <t>{"username":"auto_admin_1.1.8","name":"auto_admin","password":"casa1234&amp;","enabled":1,"email":"auto_admin@qq.com","group":"admin"}</t>
+  </si>
+  <si>
     <t>1.1.9_create_admin_user_password_only_string</t>
   </si>
   <si>
+    <t>{"username":"auto_admin_1.1.9","name":"auto_admin","password":"casacasa","enabled":1,"email":"auto_admin@qq.com","group":"admin"}</t>
+  </si>
+  <si>
     <t>1.1.10_create_admin_user_password_only_number</t>
   </si>
   <si>
+    <t>{"username":"auto_admin_1.1.10","name":"auto_admin","password":"12345678","enabled":1,"email":"auto_admin@qq.com","group":"admin"}</t>
+  </si>
+  <si>
     <t>1.1.11_create_admin_user_admin_existed</t>
   </si>
   <si>
@@ -115,10 +148,19 @@
     <t>1.1.12_create_cd_user</t>
   </si>
   <si>
+    <t>{"username":"auto_cd","name":"auto_admin","password":"casa1234","enabled":1,"email":"auto_admin@qq.com","group":"cds"}</t>
+  </si>
+  <si>
     <t>1.1.13_create_edge_user</t>
   </si>
   <si>
+    <t>{"username":"auto_edge","name":"auto_admin","password":"casa1234","enabled":1,"email":"auto_admin@qq.com","group":"edge"}</t>
+  </si>
+  <si>
     <t>1.1.14_create_guest_user</t>
+  </si>
+  <si>
+    <t>{"username":"auto_guest","name":"auto_admin","password":"casa1234","enabled":1,"email":"auto_admin@qq.com","group":"guest"}</t>
   </si>
 </sst>
 </file>
@@ -734,9 +776,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1051,8 +1096,8 @@
   <sheetPr/>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1061,8 +1106,10 @@
     <col min="2" max="2" width="12.625" customWidth="1"/>
     <col min="3" max="3" width="7.375" customWidth="1"/>
     <col min="4" max="4" width="44.2166666666667" customWidth="1"/>
-    <col min="5" max="5" width="24.25" customWidth="1"/>
-    <col min="6" max="10" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="8" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="86" customWidth="1"/>
+    <col min="10" max="10" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1132,7 +1179,9 @@
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3"/>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
@@ -1152,9 +1201,11 @@
       </c>
       <c r="C4"/>
       <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4"/>
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
       <c r="F4" t="s">
         <v>14</v>
       </c>
@@ -1162,10 +1213,10 @@
         <v>15</v>
       </c>
       <c r="H4">
-        <v>500</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:7">
+    <row r="5" customFormat="1" spans="1:9">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1174,17 +1225,25 @@
       </c>
       <c r="C5"/>
       <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5"/>
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
       </c>
+      <c r="H5">
+        <v>400</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" customFormat="1" spans="1:7">
+    <row r="6" customFormat="1" spans="1:9">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1193,17 +1252,25 @@
       </c>
       <c r="C6"/>
       <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6"/>
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
       </c>
+      <c r="H6">
+        <v>400</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" customFormat="1" spans="1:7">
+    <row r="7" customFormat="1" spans="1:9">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1212,17 +1279,25 @@
       </c>
       <c r="C7"/>
       <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7"/>
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
       <c r="F7" t="s">
         <v>14</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
+      <c r="H7">
+        <v>400</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="8" customFormat="1" spans="1:7">
+    <row r="8" customFormat="1" spans="1:9">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1231,7 +1306,10 @@
       </c>
       <c r="C8"/>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -1239,8 +1317,14 @@
       <c r="G8" t="s">
         <v>15</v>
       </c>
+      <c r="H8">
+        <v>400</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="9" customFormat="1" spans="1:7">
+    <row r="9" customFormat="1" spans="1:8">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1249,7 +1333,10 @@
       </c>
       <c r="C9"/>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
       </c>
       <c r="F9" t="s">
         <v>14</v>
@@ -1257,8 +1344,11 @@
       <c r="G9" t="s">
         <v>15</v>
       </c>
+      <c r="H9">
+        <v>200</v>
+      </c>
     </row>
-    <row r="10" customFormat="1" spans="1:7">
+    <row r="10" customFormat="1" spans="1:8">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1267,7 +1357,10 @@
       </c>
       <c r="C10"/>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
@@ -1275,8 +1368,11 @@
       <c r="G10" t="s">
         <v>15</v>
       </c>
+      <c r="H10">
+        <v>200</v>
+      </c>
     </row>
-    <row r="11" customFormat="1" spans="1:7">
+    <row r="11" customFormat="1" spans="1:8">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1285,13 +1381,19 @@
       </c>
       <c r="C11"/>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
+      </c>
+      <c r="H11">
+        <v>200</v>
       </c>
     </row>
     <row r="12" customFormat="1" spans="1:9">
@@ -1303,9 +1405,11 @@
       </c>
       <c r="C12"/>
       <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12"/>
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
@@ -1316,10 +1420,10 @@
         <v>400</v>
       </c>
       <c r="I12" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="13" customFormat="1" spans="1:7">
+    <row r="13" customFormat="1" spans="1:8">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1328,17 +1432,22 @@
       </c>
       <c r="C13"/>
       <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13"/>
+        <v>38</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
       <c r="F13" t="s">
         <v>14</v>
       </c>
       <c r="G13" t="s">
         <v>15</v>
       </c>
+      <c r="H13">
+        <v>200</v>
+      </c>
     </row>
-    <row r="14" customFormat="1" spans="1:7">
+    <row r="14" customFormat="1" spans="1:8">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1347,7 +1456,10 @@
       </c>
       <c r="C14"/>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
       </c>
       <c r="F14" t="s">
         <v>14</v>
@@ -1355,8 +1467,11 @@
       <c r="G14" t="s">
         <v>15</v>
       </c>
+      <c r="H14">
+        <v>200</v>
+      </c>
     </row>
-    <row r="15" customFormat="1" spans="1:7">
+    <row r="15" customFormat="1" spans="1:8">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1365,13 +1480,19 @@
       </c>
       <c r="C15"/>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>42</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
       </c>
       <c r="F15" t="s">
         <v>14</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
+      </c>
+      <c r="H15">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/data/api_test_data.xlsx
+++ b/data/api_test_data.xlsx
@@ -1097,7 +1097,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A1" sqref="A1:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
